--- a/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Колмагорова_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Проверка сложной гипотезы/Файлы построенных таблиц по результатам/Колмагорова_result.xlsx
@@ -589,7 +589,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8037</v>
+        <v>0.8038</v>
       </c>
       <c r="D11" t="n">
         <v>0.1208</v>
@@ -648,7 +648,7 @@
         <v>0.5084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7978</v>
+        <v>0.7979000000000001</v>
       </c>
     </row>
     <row r="16">
